--- a/basic-forms/forms/app/dynamic_url.xlsx
+++ b/basic-forms/forms/app/dynamic_url.xlsx
@@ -43,6 +43,7 @@
             <color rgb="FF0000FF"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">https://docs.getodk.org/form-question-types/
 </t>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -232,11 +233,12 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -258,10 +260,17 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -389,41 +398,53 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,7 +553,6 @@
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -716,7 +736,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -806,7 +826,9 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,7 +879,9 @@
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -5978,44 +6002,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <f aca="true">NOW()</f>
-        <v>45544.3717359003</v>
+        <v>45544.4530230467</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
     </row>

--- a/basic-forms/forms/app/dynamic_url.xlsx
+++ b/basic-forms/forms/app/dynamic_url.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">select-contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
   </si>
   <si>
     <t xml:space="preserve">hidden</t>
@@ -389,7 +386,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -429,13 +426,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -878,13 +868,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.98"/>
@@ -1152,16 +1142,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1172,10 +1156,10 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1187,7 +1171,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26">
+  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26 C27">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1209,36 +1193,14 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26">
+  <conditionalFormatting sqref="C28:C10000 C2:C26 C27">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10000">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(F2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A27="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A27="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A27="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A27="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1289,37 +1251,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C2" s="8" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213144412</v>
+        <v>20251119133404</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/app/dynamic_url.xlsx
+++ b/basic-forms/forms/app/dynamic_url.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
@@ -159,9 +159,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
@@ -173,24 +172,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
-By default, this template uses a formula to create a date-based version that will update automatically.</t>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
         </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -353,9 +339,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -366,9 +349,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynamic_url</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -863,7 +843,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -1171,7 +1151,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26 C27">
+  <conditionalFormatting sqref="A2:G10000">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1193,7 +1173,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26 C27">
+  <conditionalFormatting sqref="C2:C10000">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
@@ -1235,18 +1215,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,26 +1241,20 @@
       <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092018</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20251119133404</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/app/dynamic_url.xlsx
+++ b/basic-forms/forms/app/dynamic_url.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
@@ -159,9 +159,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
@@ -173,24 +172,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
-By default, this template uses a formula to create a date-based version that will update automatically.</t>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
         </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -340,9 +326,6 @@
     <t xml:space="preserve">select-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
@@ -356,9 +339,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -369,9 +349,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynamic_url</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -389,7 +366,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -429,13 +406,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -873,18 +843,18 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.98"/>
@@ -1152,16 +1122,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1172,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1187,7 +1151,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26">
+  <conditionalFormatting sqref="A2:G10000">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1209,36 +1173,14 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26">
+  <conditionalFormatting sqref="C2:C10000">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10000">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(F2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A27="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A27="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A27="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A27="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1273,53 +1215,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092018</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213144412</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
